--- a/OriginTable/Card.xlsx
+++ b/OriginTable/Card.xlsx
@@ -7,16 +7,14 @@
     <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Card" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
   <si>
     <t>CardID</t>
   </si>
@@ -36,40 +34,55 @@
     <t>CardImage</t>
   </si>
   <si>
+    <t>卡牌ID</t>
+  </si>
+  <si>
+    <t>效果ID组</t>
+  </si>
+  <si>
+    <t>卡牌名称</t>
+  </si>
+  <si>
+    <t>卡牌对话ID</t>
+  </si>
+  <si>
+    <t>骰位</t>
+  </si>
+  <si>
+    <t>卡图路径</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
-    <t>int[]</t>
+    <t>intlist</t>
   </si>
   <si>
     <t>string</t>
   </si>
   <si>
-    <t>[1|3]</t>
+    <t>1|3</t>
   </si>
   <si>
     <t>睡觉</t>
   </si>
   <si>
-    <t>[1|2]</t>
-  </si>
-  <si>
-    <t>[5|6]</t>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>5|6</t>
   </si>
   <si>
     <t>等待</t>
   </si>
   <si>
-    <t>[3|4]</t>
-  </si>
-  <si>
-    <t>[2|4]</t>
+    <t>3|4</t>
+  </si>
+  <si>
+    <t>2|4</t>
   </si>
   <si>
     <t>照镜子</t>
-  </si>
-  <si>
-    <t>[5]</t>
   </si>
 </sst>
 </file>
@@ -704,17 +717,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1031,27 +1041,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="7.875" customWidth="1"/>
-    <col min="2" max="2" width="6.875" customWidth="1"/>
-    <col min="3" max="3" width="7.125" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1067,74 +1077,94 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
-      <c r="A2" s="3" t="s">
+    <row r="2" ht="15" spans="1:6">
+      <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
+    <row r="3" ht="16.5" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5">
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
         <v>2</v>
       </c>
     </row>
@@ -1143,38 +1173,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/OriginTable/Card.xlsx
+++ b/OriginTable/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
   <si>
     <t>CardID</t>
   </si>
@@ -70,19 +70,28 @@
     <t>1|2</t>
   </si>
   <si>
+    <t>MeowDice\Assets\ArtResources\cards\03.png</t>
+  </si>
+  <si>
     <t>5|6</t>
   </si>
   <si>
-    <t>等待</t>
+    <t>发呆</t>
   </si>
   <si>
     <t>3|4</t>
   </si>
   <si>
+    <t>MeowDice\Assets\ArtResources\cards\01.png</t>
+  </si>
+  <si>
     <t>2|4</t>
   </si>
   <si>
-    <t>照镜子</t>
+    <t>进食</t>
+  </si>
+  <si>
+    <t>MeowDice\Assets\ArtResources\cards\02.png</t>
   </si>
 </sst>
 </file>
@@ -1044,7 +1053,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1054,7 +1063,7 @@
     <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="46" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:6">
@@ -1117,7 +1126,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>1</v>
       </c>
@@ -1133,39 +1142,48 @@
       <c r="E4" s="1">
         <v>1</v>
       </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>3</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/OriginTable/Card.xlsx
+++ b/OriginTable/Card.xlsx
@@ -61,6 +61,18 @@
     <t>string</t>
   </si>
   <si>
+    <t>5|6</t>
+  </si>
+  <si>
+    <t>发呆</t>
+  </si>
+  <si>
+    <t>3|4</t>
+  </si>
+  <si>
+    <t>Art\cards\01</t>
+  </si>
+  <si>
     <t>1|3</t>
   </si>
   <si>
@@ -70,19 +82,7 @@
     <t>1|2</t>
   </si>
   <si>
-    <t>MeowDice\Assets\ArtResources\cards\03.png</t>
-  </si>
-  <si>
-    <t>5|6</t>
-  </si>
-  <si>
-    <t>发呆</t>
-  </si>
-  <si>
-    <t>3|4</t>
-  </si>
-  <si>
-    <t>MeowDice\Assets\ArtResources\cards\01.png</t>
+    <t>Art\cards\03</t>
   </si>
   <si>
     <t>2|4</t>
@@ -91,7 +91,7 @@
     <t>进食</t>
   </si>
   <si>
-    <t>MeowDice\Assets\ArtResources\cards\02.png</t>
+    <t>Art\cards\02</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1053,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
@@ -1128,7 +1128,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>15</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -1168,7 +1168,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>23</v>

--- a/OriginTable/Card.xlsx
+++ b/OriginTable/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>CardID</t>
   </si>
@@ -34,6 +34,18 @@
     <t>CardImage</t>
   </si>
   <si>
+    <t>CardDes</t>
+  </si>
+  <si>
+    <t>EnterID</t>
+  </si>
+  <si>
+    <t>CatPerformance</t>
+  </si>
+  <si>
+    <t>IsExport</t>
+  </si>
+  <si>
     <t>卡牌ID</t>
   </si>
   <si>
@@ -52,6 +64,18 @@
     <t>卡图路径</t>
   </si>
   <si>
+    <t>卡牌描述</t>
+  </si>
+  <si>
+    <t>词条ID</t>
+  </si>
+  <si>
+    <t>猫咪表现</t>
+  </si>
+  <si>
+    <t>是否导出到CSV中</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -73,6 +97,9 @@
     <t>Art\cards\01</t>
   </si>
   <si>
+    <t>无事发生</t>
+  </si>
+  <si>
     <t>1|3</t>
   </si>
   <si>
@@ -85,6 +112,9 @@
     <t>Art\cards\03</t>
   </si>
   <si>
+    <t>①生成10点安抚值\n②骰位槽中每有一张【睡觉】，在生效时，生成的安抚值数值-1</t>
+  </si>
+  <si>
     <t>2|4</t>
   </si>
   <si>
@@ -92,6 +122,195 @@
   </si>
   <si>
     <t>Art\cards\02</t>
+  </si>
+  <si>
+    <t>①san值-10\n②骰位槽中每有一张【进食】，在生效时，造成的san值降低数值-1</t>
+  </si>
+  <si>
+    <t>猫草</t>
+  </si>
+  <si>
+    <t>Art\cards\04</t>
+  </si>
+  <si>
+    <t>①让猫咪产生2*骰子点数的躁狂层数\n②骰位槽中每有一张【猫草】，生效时躁狂层数-1</t>
+  </si>
+  <si>
+    <t>种草猫？</t>
+  </si>
+  <si>
+    <t>Art\cards\06</t>
+  </si>
+  <si>
+    <t>①生效时，若骰子槽中存在2张以上【猫草】，则让猫咪产生【猫草】数量*骰子点数的躁狂层数\n②san值+2</t>
+  </si>
+  <si>
+    <t>三重身</t>
+  </si>
+  <si>
+    <t>Art\cards\05</t>
+  </si>
+  <si>
+    <t>san值降低3次，每次降低3点</t>
+  </si>
+  <si>
+    <t>6|1|10|12</t>
+  </si>
+  <si>
+    <t>磨爪</t>
+  </si>
+  <si>
+    <t>Art\cards\07</t>
+  </si>
+  <si>
+    <t>①猫咪每有1层躁狂层数，骰位降低1\n②san值降低1*骰子点数次，每次降低3点</t>
+  </si>
+  <si>
+    <t>幻惑</t>
+  </si>
+  <si>
+    <t>Art\cards\09</t>
+  </si>
+  <si>
+    <t>①若骰子点数小于猫咪躁狂层数，躁狂层数+骰子点数值\n②若骰子点数大于猫咪躁狂层数，san值降低1*骰子点数次，每次降低1点</t>
+  </si>
+  <si>
+    <t>边缘行者</t>
+  </si>
+  <si>
+    <t>Art\cards\08</t>
+  </si>
+  <si>
+    <t>①放入骰位槽时，去除猫咪最多3层躁狂层数，抽取对应层数的卡牌\n②警戒度+10</t>
+  </si>
+  <si>
+    <t>公正的骰子？</t>
+  </si>
+  <si>
+    <t>Art\cards\10</t>
+  </si>
+  <si>
+    <t>接下来1*骰子点数的回合数内，去除1个骰子槽位（骰子槽位最多降低至1个）</t>
+  </si>
+  <si>
+    <t>翻箱倒柜</t>
+  </si>
+  <si>
+    <t>Art\cards\11</t>
+  </si>
+  <si>
+    <t>①放入骰子槽时，抽取6-骰子槽点数的卡牌\n②警戒度+10</t>
+  </si>
+  <si>
+    <t>耍赖</t>
+  </si>
+  <si>
+    <t>Art\cards\12</t>
+  </si>
+  <si>
+    <t>①指定一张卡牌，降低其骰位，降低数值为当前不可用骰子槽数量\n②若无不可用骰子槽，san值+10</t>
+  </si>
+  <si>
+    <t>空白</t>
+  </si>
+  <si>
+    <t>Art\cards\13</t>
+  </si>
+  <si>
+    <t>所有卡牌在下回合内骰位值变为1</t>
+  </si>
+  <si>
+    <t>弓背冥想</t>
+  </si>
+  <si>
+    <t>Art\cards\14</t>
+  </si>
+  <si>
+    <t>①每有1个不可用骰子槽，猫咪san值降低10\n②每有一个可用骰子槽，产生10点安抚值</t>
+  </si>
+  <si>
+    <t>美梦</t>
+  </si>
+  <si>
+    <t>Art\cards\15</t>
+  </si>
+  <si>
+    <t>①猫咪进入骰子点数*1回合数的【入梦】状态\n②骰子槽中每有一张【美梦】，该卡产生的【入梦】状态回合数-1</t>
+  </si>
+  <si>
+    <t>梦游</t>
+  </si>
+  <si>
+    <t>Art\cards\16</t>
+  </si>
+  <si>
+    <t>①若猫咪有安抚值，则产生当前安抚值*骰子点数的安抚值\n②若猫咪无安抚值，则产生5点安抚值</t>
+  </si>
+  <si>
+    <t>噩梦</t>
+  </si>
+  <si>
+    <t>Art\cards\17</t>
+  </si>
+  <si>
+    <t>①若猫咪有安抚值，让猫咪san值降低其安抚值点数\n②若猫咪无安抚值，让其警戒度降低骰子点数数值</t>
+  </si>
+  <si>
+    <t>续梦</t>
+  </si>
+  <si>
+    <t>Art\cards\18</t>
+  </si>
+  <si>
+    <t>①增加入梦层数的安抚值\n②使警戒度增加3*骰子点数后，让猫咪进入3层【入梦】状态</t>
+  </si>
+  <si>
+    <t>4|5</t>
+  </si>
+  <si>
+    <t>薛定谔的数字</t>
+  </si>
+  <si>
+    <t>Art\cards\19</t>
+  </si>
+  <si>
+    <t>①放进骰子槽时，宣言一个数字。\n②若该卡生效且当回合骰子点数与宣言数字相同，san值-40</t>
+  </si>
+  <si>
+    <t>液体猫</t>
+  </si>
+  <si>
+    <t>Art\cards\20</t>
+  </si>
+  <si>
+    <t>①放入骰子槽时，安抚值+20\n②生效时，警戒度+25</t>
+  </si>
+  <si>
+    <t>不公正的骰子</t>
+  </si>
+  <si>
+    <t>Art\cards\21</t>
+  </si>
+  <si>
+    <t>放进骰子槽时，使接下来一个回合的骰子点数固定为该骰子槽的值。该卡牌的骰位数值+1</t>
+  </si>
+  <si>
+    <t>对赌</t>
+  </si>
+  <si>
+    <t>Art\cards\22</t>
+  </si>
+  <si>
+    <t>这张卡生效后，和猫各摇1次骰子\n①若猫的骰子点数更大，则随机销毁你的一张卡牌\n②若你的骰子点数更大，则san值-6*骰子点数值\n③若骰子点数相同，则重新各摇1次骰子\n</t>
+  </si>
+  <si>
+    <t>傻猫</t>
+  </si>
+  <si>
+    <t>Art\cards\23</t>
+  </si>
+  <si>
+    <t>①警戒度+20\n②san值-40</t>
   </si>
 </sst>
 </file>
@@ -104,7 +323,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,6 +332,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,7 +345,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
@@ -596,148 +821,160 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1050,131 +1287,193 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="7.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.875" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" style="1" customWidth="1"/>
     <col min="5" max="5" width="9.625" style="1" customWidth="1"/>
     <col min="6" max="6" width="46" style="1" customWidth="1"/>
+    <col min="7" max="7" width="95.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="17.125" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" ht="15" spans="1:10">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="15" spans="1:6">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="2" t="s">
+    </row>
+    <row r="2" ht="15" spans="1:10">
+      <c r="A2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" ht="16.5" spans="1:6">
-      <c r="A3" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="F2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
+      <c r="B4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="F4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="1">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
+      <c r="B5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="F5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>16</v>
+      </c>
+      <c r="J5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>24</v>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="D6" s="1">
         <v>5</v>
@@ -1182,8 +1481,633 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>25</v>
+      <c r="F6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="1">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="1">
+        <v>3</v>
+      </c>
+      <c r="I7" s="1">
+        <v>9</v>
+      </c>
+      <c r="J7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3</v>
+      </c>
+      <c r="I8" s="1">
+        <v>22</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>3</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="1">
+        <v>5</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H10" s="1">
+        <v>3</v>
+      </c>
+      <c r="I10" s="1">
+        <v>8</v>
+      </c>
+      <c r="J10" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="1">
+        <v>5</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="1">
+        <v>3</v>
+      </c>
+      <c r="I11" s="1">
+        <v>10</v>
+      </c>
+      <c r="J11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>7</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I13" s="1">
+        <v>21</v>
+      </c>
+      <c r="J13" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="1">
+        <v>5</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>11</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1">
+        <v>11</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="1">
+        <v>5</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" s="1">
+        <v>12</v>
+      </c>
+      <c r="J15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="1">
+        <v>5</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>6</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="I17" s="1">
+        <v>6</v>
+      </c>
+      <c r="J17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1">
+        <v>14</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="1">
+        <v>5</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="1">
+        <v>16</v>
+      </c>
+      <c r="J18" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1">
+        <v>15</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H19" s="1">
+        <v>5</v>
+      </c>
+      <c r="I19" s="1">
+        <v>17</v>
+      </c>
+      <c r="J19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1">
+        <v>16</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>4</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1">
+        <v>17</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="1">
+        <v>5</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="1">
+        <v>18</v>
+      </c>
+      <c r="J21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1">
+        <v>18</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="1">
+        <v>5</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1">
+        <v>19</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D23" s="1">
+        <v>5</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" s="1">
+        <v>5</v>
+      </c>
+      <c r="I23" s="1">
+        <v>5</v>
+      </c>
+      <c r="J23" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="1">
+        <v>5</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="1">
+        <v>1</v>
+      </c>
+      <c r="I24" s="1">
+        <v>20</v>
+      </c>
+      <c r="J24" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" ht="33" spans="1:10">
+      <c r="A25" s="1">
+        <v>21</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="1">
+        <v>2</v>
+      </c>
+      <c r="J25" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1">
+        <v>22</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="1">
+        <v>5</v>
+      </c>
+      <c r="E26" s="1">
+        <v>6</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="I26" s="1">
+        <v>22</v>
+      </c>
+      <c r="J26" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/OriginTable/Card.xlsx
+++ b/OriginTable/Card.xlsx
@@ -52,7 +52,7 @@
     <t>效果ID组</t>
   </si>
   <si>
-    <t>卡牌名称</t>
+    <t>&amp;卡牌名称</t>
   </si>
   <si>
     <t>卡牌对话ID</t>
@@ -64,7 +64,7 @@
     <t>卡图路径</t>
   </si>
   <si>
-    <t>卡牌描述</t>
+    <t>&amp;卡牌描述</t>
   </si>
   <si>
     <t>词条ID</t>
@@ -951,7 +951,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,9 +965,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1290,7 +1287,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1408,22 +1405,22 @@
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>27</v>
       </c>
       <c r="I4" s="1">
@@ -1437,22 +1434,22 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="6" t="s">
         <v>32</v>
       </c>
       <c r="H5" s="1">
@@ -1469,10 +1466,10 @@
       <c r="A6" s="1">
         <v>2</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D6" s="1">
@@ -1481,10 +1478,10 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="6" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="1">
@@ -1498,10 +1495,10 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D7" s="1">
@@ -1510,10 +1507,10 @@
       <c r="E7" s="1">
         <v>1</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>39</v>
       </c>
       <c r="H7" s="1">
@@ -1530,10 +1527,10 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D8" s="1">
@@ -1542,10 +1539,10 @@
       <c r="E8" s="1">
         <v>3</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="G8" s="6" t="s">
         <v>42</v>
       </c>
       <c r="H8" s="1">
@@ -1562,10 +1559,10 @@
       <c r="A9" s="1">
         <v>5</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="1">
@@ -1574,10 +1571,10 @@
       <c r="E9" s="1">
         <v>3</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="G9" s="6" t="s">
         <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
@@ -1591,10 +1588,10 @@
       <c r="A10" s="1">
         <v>6</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D10" s="1">
@@ -1603,10 +1600,10 @@
       <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="G10" s="6" t="s">
         <v>49</v>
       </c>
       <c r="H10" s="1">
@@ -1623,10 +1620,10 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D11" s="1">
@@ -1635,10 +1632,10 @@
       <c r="E11" s="1">
         <v>3</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="G11" s="6" t="s">
         <v>52</v>
       </c>
       <c r="H11" s="1">
@@ -1655,10 +1652,10 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D12" s="1">
@@ -1667,10 +1664,10 @@
       <c r="E12" s="1">
         <v>3</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="6" t="s">
         <v>55</v>
       </c>
       <c r="H12" s="1">
@@ -1687,10 +1684,10 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="1" t="s">
         <v>56</v>
       </c>
       <c r="D13" s="1">
@@ -1699,10 +1696,10 @@
       <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="6" t="s">
         <v>58</v>
       </c>
       <c r="I13" s="1">
@@ -1716,10 +1713,10 @@
       <c r="A14" s="1">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="1" t="s">
         <v>59</v>
       </c>
       <c r="D14" s="1">
@@ -1728,10 +1725,10 @@
       <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="6" t="s">
         <v>61</v>
       </c>
       <c r="H14" s="1">
@@ -1748,10 +1745,10 @@
       <c r="A15" s="1">
         <v>11</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="1">
@@ -1760,10 +1757,10 @@
       <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G15" s="6" t="s">
         <v>64</v>
       </c>
       <c r="I15" s="1">
@@ -1777,10 +1774,10 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="1" t="s">
         <v>65</v>
       </c>
       <c r="D16" s="1">
@@ -1789,10 +1786,10 @@
       <c r="E16" s="1">
         <v>4</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="6" t="s">
         <v>67</v>
       </c>
       <c r="I16" s="1">
@@ -1806,10 +1803,10 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D17" s="1">
@@ -1818,10 +1815,10 @@
       <c r="E17" s="1">
         <v>6</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="6" t="s">
         <v>70</v>
       </c>
       <c r="I17" s="1">
@@ -1835,10 +1832,10 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D18" s="1">
@@ -1847,10 +1844,10 @@
       <c r="E18" s="1">
         <v>1</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="G18" s="6" t="s">
         <v>73</v>
       </c>
       <c r="H18" s="1">
@@ -1867,10 +1864,10 @@
       <c r="A19" s="1">
         <v>15</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="1" t="s">
         <v>74</v>
       </c>
       <c r="D19" s="1">
@@ -1879,10 +1876,10 @@
       <c r="E19" s="1">
         <v>3</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="F19" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="G19" s="6" t="s">
         <v>76</v>
       </c>
       <c r="H19" s="1">
@@ -1899,10 +1896,10 @@
       <c r="A20" s="1">
         <v>16</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D20" s="1">
@@ -1911,10 +1908,10 @@
       <c r="E20" s="1">
         <v>4</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F20" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="G20" s="6" t="s">
         <v>79</v>
       </c>
       <c r="H20" s="1">
@@ -1931,10 +1928,10 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D21" s="1">
@@ -1943,10 +1940,10 @@
       <c r="E21" s="1">
         <v>1</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="F21" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="G21" s="6" t="s">
         <v>82</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -1963,10 +1960,10 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D22" s="1">
@@ -1975,10 +1972,10 @@
       <c r="E22" s="1">
         <v>6</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="G22" s="6" t="s">
         <v>86</v>
       </c>
       <c r="I22" s="1">
@@ -1992,10 +1989,10 @@
       <c r="A23" s="1">
         <v>19</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="1" t="s">
         <v>87</v>
       </c>
       <c r="D23" s="1">
@@ -2004,10 +2001,10 @@
       <c r="E23" s="1">
         <v>1</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="6" t="s">
         <v>89</v>
       </c>
       <c r="H23" s="1">
@@ -2024,10 +2021,10 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D24" s="1">
@@ -2036,10 +2033,10 @@
       <c r="E24" s="1">
         <v>4</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="6" t="s">
         <v>92</v>
       </c>
       <c r="H24" s="1">
@@ -2056,10 +2053,10 @@
       <c r="A25" s="1">
         <v>21</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="1" t="s">
         <v>93</v>
       </c>
       <c r="D25" s="1">
@@ -2068,10 +2065,10 @@
       <c r="E25" s="1">
         <v>4</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="6" t="s">
         <v>95</v>
       </c>
       <c r="I25" s="1">
@@ -2085,10 +2082,10 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="1" t="s">
         <v>96</v>
       </c>
       <c r="D26" s="1">
@@ -2097,10 +2094,10 @@
       <c r="E26" s="1">
         <v>6</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="6" t="s">
         <v>98</v>
       </c>
       <c r="I26" s="1">

--- a/OriginTable/Card.xlsx
+++ b/OriginTable/Card.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Card!$G$1:$G$26</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
   <si>
     <t>CardID</t>
   </si>
@@ -85,7 +88,133 @@
     <t>string</t>
   </si>
   <si>
-    <t>5|6</t>
+    <t>空白</t>
+  </si>
+  <si>
+    <t>Art\cards\13</t>
+  </si>
+  <si>
+    <t>无事发生</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t>1|2</t>
+  </si>
+  <si>
+    <t>Art\cards\03</t>
+  </si>
+  <si>
+    <t>安抚值+10</t>
+  </si>
+  <si>
+    <t>1|19</t>
+  </si>
+  <si>
+    <t>进食</t>
+  </si>
+  <si>
+    <t>Art\cards\02</t>
+  </si>
+  <si>
+    <t>理智+10，警戒度-10</t>
+  </si>
+  <si>
+    <t>猫草</t>
+  </si>
+  <si>
+    <t>Art\cards\04</t>
+  </si>
+  <si>
+    <t>产生1*骰子点数的【躁狂】层数</t>
+  </si>
+  <si>
+    <t>种草猫？</t>
+  </si>
+  <si>
+    <t>Art\cards\06</t>
+  </si>
+  <si>
+    <t>理智-30</t>
+  </si>
+  <si>
+    <t>20|24</t>
+  </si>
+  <si>
+    <t>三重身</t>
+  </si>
+  <si>
+    <t>Art\cards\05</t>
+  </si>
+  <si>
+    <t>产生3*骰子点数的【躁狂】层数，警戒度+20</t>
+  </si>
+  <si>
+    <t>6|1|10|12</t>
+  </si>
+  <si>
+    <t>4|21</t>
+  </si>
+  <si>
+    <t>磨爪</t>
+  </si>
+  <si>
+    <t>Art\cards\07</t>
+  </si>
+  <si>
+    <t>理智-50，警戒度+30</t>
+  </si>
+  <si>
+    <t>幻惑</t>
+  </si>
+  <si>
+    <t>Art\cards\09</t>
+  </si>
+  <si>
+    <t>警戒度-25</t>
+  </si>
+  <si>
+    <t>边缘行者</t>
+  </si>
+  <si>
+    <t>Art\cards\08</t>
+  </si>
+  <si>
+    <t>安抚值+30</t>
+  </si>
+  <si>
+    <t>公正的骰子？</t>
+  </si>
+  <si>
+    <t>Art\cards\10</t>
+  </si>
+  <si>
+    <t>产生6*骰子点数的【躁狂】层数</t>
+  </si>
+  <si>
+    <t>5|18</t>
+  </si>
+  <si>
+    <t>翻箱倒柜</t>
+  </si>
+  <si>
+    <t>Art\cards\11</t>
+  </si>
+  <si>
+    <t>理智+15，警戒度-15</t>
+  </si>
+  <si>
+    <t>6|11</t>
+  </si>
+  <si>
+    <t>耍赖</t>
+  </si>
+  <si>
+    <t>Art\cards\12</t>
+  </si>
+  <si>
+    <t>理智-10，安抚值+10</t>
   </si>
   <si>
     <t>发呆</t>
@@ -97,127 +226,7 @@
     <t>Art\cards\01</t>
   </si>
   <si>
-    <t>无事发生</t>
-  </si>
-  <si>
-    <t>1|3</t>
-  </si>
-  <si>
-    <t>睡觉</t>
-  </si>
-  <si>
-    <t>1|2</t>
-  </si>
-  <si>
-    <t>Art\cards\03</t>
-  </si>
-  <si>
-    <t>①生成10点安抚值\n②骰位槽中每有一张【睡觉】，在生效时，生成的安抚值数值-1</t>
-  </si>
-  <si>
-    <t>2|4</t>
-  </si>
-  <si>
-    <t>进食</t>
-  </si>
-  <si>
-    <t>Art\cards\02</t>
-  </si>
-  <si>
-    <t>①san值-10\n②骰位槽中每有一张【进食】，在生效时，造成的san值降低数值-1</t>
-  </si>
-  <si>
-    <t>猫草</t>
-  </si>
-  <si>
-    <t>Art\cards\04</t>
-  </si>
-  <si>
-    <t>①让猫咪产生2*骰子点数的躁狂层数\n②骰位槽中每有一张【猫草】，生效时躁狂层数-1</t>
-  </si>
-  <si>
-    <t>种草猫？</t>
-  </si>
-  <si>
-    <t>Art\cards\06</t>
-  </si>
-  <si>
-    <t>①生效时，若骰子槽中存在2张以上【猫草】，则让猫咪产生【猫草】数量*骰子点数的躁狂层数\n②san值+2</t>
-  </si>
-  <si>
-    <t>三重身</t>
-  </si>
-  <si>
-    <t>Art\cards\05</t>
-  </si>
-  <si>
-    <t>san值降低3次，每次降低3点</t>
-  </si>
-  <si>
-    <t>6|1|10|12</t>
-  </si>
-  <si>
-    <t>磨爪</t>
-  </si>
-  <si>
-    <t>Art\cards\07</t>
-  </si>
-  <si>
-    <t>①猫咪每有1层躁狂层数，骰位降低1\n②san值降低1*骰子点数次，每次降低3点</t>
-  </si>
-  <si>
-    <t>幻惑</t>
-  </si>
-  <si>
-    <t>Art\cards\09</t>
-  </si>
-  <si>
-    <t>①若骰子点数小于猫咪躁狂层数，躁狂层数+骰子点数值\n②若骰子点数大于猫咪躁狂层数，san值降低1*骰子点数次，每次降低1点</t>
-  </si>
-  <si>
-    <t>边缘行者</t>
-  </si>
-  <si>
-    <t>Art\cards\08</t>
-  </si>
-  <si>
-    <t>①放入骰位槽时，去除猫咪最多3层躁狂层数，抽取对应层数的卡牌\n②警戒度+10</t>
-  </si>
-  <si>
-    <t>公正的骰子？</t>
-  </si>
-  <si>
-    <t>Art\cards\10</t>
-  </si>
-  <si>
-    <t>接下来1*骰子点数的回合数内，去除1个骰子槽位（骰子槽位最多降低至1个）</t>
-  </si>
-  <si>
-    <t>翻箱倒柜</t>
-  </si>
-  <si>
-    <t>Art\cards\11</t>
-  </si>
-  <si>
-    <t>①放入骰子槽时，抽取6-骰子槽点数的卡牌\n②警戒度+10</t>
-  </si>
-  <si>
-    <t>耍赖</t>
-  </si>
-  <si>
-    <t>Art\cards\12</t>
-  </si>
-  <si>
-    <t>①指定一张卡牌，降低其骰位，降低数值为当前不可用骰子槽数量\n②若无不可用骰子槽，san值+10</t>
-  </si>
-  <si>
-    <t>空白</t>
-  </si>
-  <si>
-    <t>Art\cards\13</t>
-  </si>
-  <si>
-    <t>所有卡牌在下回合内骰位值变为1</t>
+    <t>警戒度-10</t>
   </si>
   <si>
     <t>弓背冥想</t>
@@ -226,7 +235,7 @@
     <t>Art\cards\14</t>
   </si>
   <si>
-    <t>①每有1个不可用骰子槽，猫咪san值降低10\n②每有一个可用骰子槽，产生10点安抚值</t>
+    <t>安抚值+40</t>
   </si>
   <si>
     <t>美梦</t>
@@ -235,7 +244,10 @@
     <t>Art\cards\15</t>
   </si>
   <si>
-    <t>①猫咪进入骰子点数*1回合数的【入梦】状态\n②骰子槽中每有一张【美梦】，该卡产生的【入梦】状态回合数-1</t>
+    <t>产生1*骰子点数的【入梦】层数</t>
+  </si>
+  <si>
+    <t>7|27</t>
   </si>
   <si>
     <t>梦游</t>
@@ -244,7 +256,10 @@
     <t>Art\cards\16</t>
   </si>
   <si>
-    <t>①若猫咪有安抚值，则产生当前安抚值*骰子点数的安抚值\n②若猫咪无安抚值，则产生5点安抚值</t>
+    <t>产生2*骰子点数的【入梦】层数，理智+20</t>
+  </si>
+  <si>
+    <t>4|22</t>
   </si>
   <si>
     <t>噩梦</t>
@@ -253,7 +268,7 @@
     <t>Art\cards\17</t>
   </si>
   <si>
-    <t>①若猫咪有安抚值，让猫咪san值降低其安抚值点数\n②若猫咪无安抚值，让其警戒度降低骰子点数数值</t>
+    <t>理智-50，警戒度+50</t>
   </si>
   <si>
     <t>续梦</t>
@@ -262,10 +277,7 @@
     <t>Art\cards\18</t>
   </si>
   <si>
-    <t>①增加入梦层数的安抚值\n②使警戒度增加3*骰子点数后，让猫咪进入3层【入梦】状态</t>
-  </si>
-  <si>
-    <t>4|5</t>
+    <t>安抚值+20</t>
   </si>
   <si>
     <t>薛定谔的数字</t>
@@ -274,7 +286,10 @@
     <t>Art\cards\19</t>
   </si>
   <si>
-    <t>①放进骰子槽时，宣言一个数字。\n②若该卡生效且当回合骰子点数与宣言数字相同，san值-40</t>
+    <t>警戒度-50</t>
+  </si>
+  <si>
+    <t>8|15</t>
   </si>
   <si>
     <t>液体猫</t>
@@ -283,7 +298,7 @@
     <t>Art\cards\20</t>
   </si>
   <si>
-    <t>①放入骰子槽时，安抚值+20\n②生效时，警戒度+25</t>
+    <t>理智+1，安抚值+99</t>
   </si>
   <si>
     <t>不公正的骰子</t>
@@ -292,7 +307,10 @@
     <t>Art\cards\21</t>
   </si>
   <si>
-    <t>放进骰子槽时，使接下来一个回合的骰子点数固定为该骰子槽的值。该卡牌的骰位数值+1</t>
+    <t>产生6*骰子点数的【入梦】层数</t>
+  </si>
+  <si>
+    <t>9|16</t>
   </si>
   <si>
     <t>对赌</t>
@@ -301,7 +319,7 @@
     <t>Art\cards\22</t>
   </si>
   <si>
-    <t>这张卡生效后，和猫各摇1次骰子\n①若猫的骰子点数更大，则随机销毁你的一张卡牌\n②若你的骰子点数更大，则san值-6*骰子点数值\n③若骰子点数相同，则重新各摇1次骰子\n</t>
+    <t>理智+50，警戒度-50</t>
   </si>
   <si>
     <t>傻猫</t>
@@ -310,7 +328,7 @@
     <t>Art\cards\23</t>
   </si>
   <si>
-    <t>①警戒度+20\n②san值-40</t>
+    <t>理智+80</t>
   </si>
 </sst>
 </file>
@@ -951,7 +969,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -966,9 +984,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1286,8 +1301,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1405,26 +1420,26 @@
       <c r="A4" s="1">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="1">
+        <v>30</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
+      <c r="D4" s="1">
+        <v>5</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I4" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
         <v>0</v>
@@ -1434,23 +1449,23 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
+      <c r="B5" s="1">
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>32</v>
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -1467,22 +1482,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>36</v>
       </c>
       <c r="I6" s="1">
         <v>15</v>
@@ -1495,11 +1510,11 @@
       <c r="A7" s="1">
         <v>3</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="1">
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D7" s="1">
         <v>5</v>
@@ -1508,10 +1523,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>36</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -1527,11 +1542,11 @@
       <c r="A8" s="1">
         <v>4</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>23</v>
+      <c r="B8" s="1">
+        <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D8" s="1">
         <v>5</v>
@@ -1540,13 +1555,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="1">
-        <v>3</v>
+        <v>38</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>39</v>
       </c>
       <c r="I8" s="1">
         <v>22</v>
@@ -1560,10 +1572,10 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
@@ -1572,13 +1584,16 @@
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="1">
+        <v>3</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>46</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1589,10 +1604,10 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="1">
         <v>5</v>
@@ -1601,13 +1616,10 @@
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="H10" s="1">
-        <v>3</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
@@ -1620,11 +1632,11 @@
       <c r="A11" s="1">
         <v>7</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
+      <c r="B11" s="1">
+        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="1">
         <v>5</v>
@@ -1633,13 +1645,10 @@
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>51</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="1">
-        <v>3</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -1652,11 +1661,11 @@
       <c r="A12" s="1">
         <v>8</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
+      <c r="B12" s="1">
+        <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="1">
         <v>5</v>
@@ -1665,13 +1674,13 @@
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="H12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12" s="1">
         <v>7</v>
@@ -1684,23 +1693,26 @@
       <c r="A13" s="1">
         <v>9</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
+      <c r="B13" s="1">
+        <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>6</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D13" s="1">
-        <v>5</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>58</v>
+      <c r="H13" s="1">
+        <v>3</v>
       </c>
       <c r="I13" s="1">
         <v>21</v>
@@ -1714,7 +1726,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>59</v>
@@ -1728,11 +1740,8 @@
       <c r="F14" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>61</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
       </c>
       <c r="I14" s="1">
         <v>11</v>
@@ -1746,22 +1755,25 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="1">
         <v>5</v>
       </c>
       <c r="E15" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="6" t="s">
         <v>64</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="1">
+        <v>5</v>
       </c>
       <c r="I15" s="1">
         <v>12</v>
@@ -1774,26 +1786,26 @@
       <c r="A16" s="1">
         <v>12</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>23</v>
+      <c r="B16" s="1">
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D16" s="1">
-        <v>5</v>
+        <v>66</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="E16" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="I16" s="1">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="J16" s="2">
         <v>0</v>
@@ -1803,11 +1815,11 @@
       <c r="A17" s="1">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>23</v>
+      <c r="B17" s="1">
+        <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D17" s="1">
         <v>5</v>
@@ -1816,10 +1828,13 @@
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
       </c>
       <c r="I17" s="1">
         <v>6</v>
@@ -1832,23 +1847,23 @@
       <c r="A18" s="1">
         <v>14</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>23</v>
+      <c r="B18" s="1">
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D18" s="1">
         <v>5</v>
       </c>
       <c r="E18" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>73</v>
+        <v>74</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="H18" s="1">
         <v>4</v>
@@ -1865,10 +1880,10 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>23</v>
+        <v>76</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1">
         <v>5</v>
@@ -1877,13 +1892,13 @@
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="H19" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I19" s="1">
         <v>17</v>
@@ -1897,22 +1912,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D20" s="1">
         <v>5</v>
       </c>
       <c r="E20" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>83</v>
       </c>
       <c r="H20" s="1">
         <v>5</v>
@@ -1928,26 +1943,26 @@
       <c r="A21" s="1">
         <v>17</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>23</v>
+      <c r="B21" s="1">
+        <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="D21" s="1">
         <v>5</v>
       </c>
       <c r="E21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="H21" s="1">
+        <v>5</v>
       </c>
       <c r="I21" s="1">
         <v>18</v>
@@ -1960,11 +1975,11 @@
       <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
+      <c r="B22" s="1">
+        <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D22" s="1">
         <v>5</v>
@@ -1973,10 +1988,10 @@
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>86</v>
+        <v>88</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>89</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -1990,10 +2005,10 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D23" s="1">
         <v>5</v>
@@ -2002,10 +2017,10 @@
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>89</v>
+        <v>92</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -2021,26 +2036,26 @@
       <c r="A24" s="1">
         <v>20</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>23</v>
+      <c r="B24" s="1">
+        <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1">
         <v>5</v>
       </c>
       <c r="E24" s="1">
+        <v>6</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="1">
         <v>4</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H24" s="1">
-        <v>1</v>
       </c>
       <c r="I24" s="1">
         <v>20</v>
@@ -2049,27 +2064,27 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="33" spans="1:10">
+    <row r="25" spans="1:10">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
       </c>
       <c r="E25" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>95</v>
+        <v>99</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>100</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -2082,23 +2097,23 @@
       <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>23</v>
+      <c r="B26" s="1">
+        <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
       </c>
       <c r="E26" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>103</v>
       </c>
       <c r="I26" s="1">
         <v>22</v>
@@ -2108,6 +2123,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="G1:G26">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/OriginTable/Card.xlsx
+++ b/OriginTable/Card.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
   <si>
     <t>CardID</t>
   </si>
@@ -109,7 +109,7 @@
     <t>安抚值+10</t>
   </si>
   <si>
-    <t>1|19</t>
+    <t>6|31</t>
   </si>
   <si>
     <t>进食</t>
@@ -118,7 +118,7 @@
     <t>Art\cards\02</t>
   </si>
   <si>
-    <t>理智+10，警戒度-10</t>
+    <t>理智-10，警戒度+10</t>
   </si>
   <si>
     <t>猫草</t>
@@ -310,16 +310,10 @@
     <t>产生6*骰子点数的【入梦】层数</t>
   </si>
   <si>
-    <t>9|16</t>
-  </si>
-  <si>
     <t>对赌</t>
   </si>
   <si>
     <t>Art\cards\22</t>
-  </si>
-  <si>
-    <t>理智+50，警戒度-50</t>
   </si>
   <si>
     <t>傻猫</t>
@@ -1302,7 +1296,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2069,10 +2063,10 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="D25" s="1">
         <v>5</v>
@@ -2081,10 +2075,10 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -2101,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1">
         <v>5</v>
@@ -2110,10 +2104,10 @@
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I26" s="1">
         <v>22</v>

--- a/OriginTable/Card.xlsx
+++ b/OriginTable/Card.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12375"/>
+    <workbookView windowWidth="13710" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="Card" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="123">
   <si>
     <t>CardID</t>
   </si>
@@ -91,6 +91,9 @@
     <t>空白</t>
   </si>
   <si>
+    <t>1|2</t>
+  </si>
+  <si>
     <t>Art\cards\13</t>
   </si>
   <si>
@@ -100,7 +103,7 @@
     <t>睡觉</t>
   </si>
   <si>
-    <t>1|2</t>
+    <t>11|12</t>
   </si>
   <si>
     <t>Art\cards\03</t>
@@ -115,6 +118,9 @@
     <t>进食</t>
   </si>
   <si>
+    <t>21|22</t>
+  </si>
+  <si>
     <t>Art\cards\02</t>
   </si>
   <si>
@@ -124,6 +130,9 @@
     <t>猫草</t>
   </si>
   <si>
+    <t>31|32</t>
+  </si>
+  <si>
     <t>Art\cards\04</t>
   </si>
   <si>
@@ -133,6 +142,9 @@
     <t>种草猫？</t>
   </si>
   <si>
+    <t>41|42|43</t>
+  </si>
+  <si>
     <t>Art\cards\06</t>
   </si>
   <si>
@@ -145,6 +157,9 @@
     <t>三重身</t>
   </si>
   <si>
+    <t>51|52</t>
+  </si>
+  <si>
     <t>Art\cards\05</t>
   </si>
   <si>
@@ -160,6 +175,9 @@
     <t>磨爪</t>
   </si>
   <si>
+    <t>61|62</t>
+  </si>
+  <si>
     <t>Art\cards\07</t>
   </si>
   <si>
@@ -169,6 +187,9 @@
     <t>幻惑</t>
   </si>
   <si>
+    <t>71|72</t>
+  </si>
+  <si>
     <t>Art\cards\09</t>
   </si>
   <si>
@@ -178,6 +199,9 @@
     <t>边缘行者</t>
   </si>
   <si>
+    <t>81|82</t>
+  </si>
+  <si>
     <t>Art\cards\08</t>
   </si>
   <si>
@@ -187,6 +211,9 @@
     <t>公正的骰子？</t>
   </si>
   <si>
+    <t>91|92|93</t>
+  </si>
+  <si>
     <t>Art\cards\10</t>
   </si>
   <si>
@@ -199,6 +226,9 @@
     <t>翻箱倒柜</t>
   </si>
   <si>
+    <t>101|102</t>
+  </si>
+  <si>
     <t>Art\cards\11</t>
   </si>
   <si>
@@ -211,6 +241,9 @@
     <t>耍赖</t>
   </si>
   <si>
+    <t>111|112</t>
+  </si>
+  <si>
     <t>Art\cards\12</t>
   </si>
   <si>
@@ -220,7 +253,7 @@
     <t>发呆</t>
   </si>
   <si>
-    <t>3|4</t>
+    <t>121|122</t>
   </si>
   <si>
     <t>Art\cards\01</t>
@@ -232,6 +265,9 @@
     <t>弓背冥想</t>
   </si>
   <si>
+    <t>131|132</t>
+  </si>
+  <si>
     <t>Art\cards\14</t>
   </si>
   <si>
@@ -241,6 +277,9 @@
     <t>美梦</t>
   </si>
   <si>
+    <t>141|142</t>
+  </si>
+  <si>
     <t>Art\cards\15</t>
   </si>
   <si>
@@ -253,6 +292,9 @@
     <t>梦游</t>
   </si>
   <si>
+    <t>151|152</t>
+  </si>
+  <si>
     <t>Art\cards\16</t>
   </si>
   <si>
@@ -265,6 +307,9 @@
     <t>噩梦</t>
   </si>
   <si>
+    <t>161|162</t>
+  </si>
+  <si>
     <t>Art\cards\17</t>
   </si>
   <si>
@@ -274,6 +319,9 @@
     <t>续梦</t>
   </si>
   <si>
+    <t>171|172</t>
+  </si>
+  <si>
     <t>Art\cards\18</t>
   </si>
   <si>
@@ -283,6 +331,9 @@
     <t>薛定谔的数字</t>
   </si>
   <si>
+    <t>181|182</t>
+  </si>
+  <si>
     <t>Art\cards\19</t>
   </si>
   <si>
@@ -295,6 +346,9 @@
     <t>液体猫</t>
   </si>
   <si>
+    <t>191|192</t>
+  </si>
+  <si>
     <t>Art\cards\20</t>
   </si>
   <si>
@@ -304,6 +358,9 @@
     <t>不公正的骰子</t>
   </si>
   <si>
+    <t>201|202</t>
+  </si>
+  <si>
     <t>Art\cards\21</t>
   </si>
   <si>
@@ -313,10 +370,16 @@
     <t>对赌</t>
   </si>
   <si>
+    <t>211|212</t>
+  </si>
+  <si>
     <t>Art\cards\22</t>
   </si>
   <si>
     <t>傻猫</t>
+  </si>
+  <si>
+    <t>221|222</t>
   </si>
   <si>
     <t>Art\cards\23</t>
@@ -1295,8 +1358,8 @@
   <sheetPr/>
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1420,17 +1483,17 @@
       <c r="C4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
+      <c r="D4" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="E4" s="1">
         <v>1</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1">
         <v>3</v>
@@ -1447,19 +1510,19 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1">
         <v>5</v>
@@ -1476,22 +1539,22 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5</v>
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="E6" s="1">
         <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I6" s="1">
         <v>15</v>
@@ -1508,19 +1571,19 @@
         <v>23</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="E7" s="1">
         <v>1</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1">
         <v>3</v>
@@ -1540,19 +1603,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5</v>
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="E8" s="1">
         <v>3</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="I8" s="1">
         <v>22</v>
@@ -1566,28 +1629,28 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="E9" s="1">
         <v>3</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1">
         <v>3</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J9" s="2">
         <v>0</v>
@@ -1598,22 +1661,22 @@
         <v>6</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5</v>
+        <v>51</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="1">
         <v>6</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="I10" s="1">
         <v>8</v>
@@ -1630,19 +1693,19 @@
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D11" s="1">
-        <v>5</v>
+        <v>55</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="E11" s="1">
         <v>3</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="I11" s="1">
         <v>10</v>
@@ -1659,19 +1722,19 @@
         <v>13</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D12" s="1">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="1">
         <v>3</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="H12" s="1">
         <v>5</v>
@@ -1691,19 +1754,19 @@
         <v>25</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="1">
-        <v>5</v>
+        <v>63</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="E13" s="1">
         <v>6</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="H13" s="1">
         <v>3</v>
@@ -1720,22 +1783,22 @@
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
+        <v>68</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="I14" s="1">
         <v>11</v>
@@ -1749,22 +1812,22 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D15" s="1">
-        <v>5</v>
+        <v>73</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>74</v>
       </c>
       <c r="E15" s="1">
         <v>2</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="H15" s="1">
         <v>5</v>
@@ -1784,19 +1847,19 @@
         <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="I16" s="1">
         <v>13</v>
@@ -1813,19 +1876,19 @@
         <v>14</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5</v>
+        <v>81</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="E17" s="1">
         <v>6</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="H17" s="1">
         <v>5</v>
@@ -1845,19 +1908,19 @@
         <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D18" s="1">
-        <v>5</v>
+        <v>85</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="E18" s="1">
         <v>2</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="H18" s="1">
         <v>4</v>
@@ -1874,22 +1937,22 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D19" s="1">
-        <v>5</v>
+        <v>90</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="E19" s="1">
         <v>3</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="H19" s="1">
         <v>4</v>
@@ -1906,22 +1969,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="1">
-        <v>5</v>
+        <v>95</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="E20" s="1">
         <v>1</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="H20" s="1">
         <v>5</v>
@@ -1941,19 +2004,19 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="1">
-        <v>5</v>
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>100</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="H21" s="1">
         <v>5</v>
@@ -1973,19 +2036,19 @@
         <v>16</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D22" s="1">
-        <v>5</v>
+        <v>103</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="E22" s="1">
         <v>6</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>89</v>
+        <v>106</v>
       </c>
       <c r="I22" s="1">
         <v>4</v>
@@ -1999,22 +2062,22 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>107</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="1">
-        <v>5</v>
+        <v>108</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="E23" s="1">
         <v>1</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="H23" s="1">
         <v>5</v>
@@ -2034,19 +2097,19 @@
         <v>28</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1">
-        <v>5</v>
+        <v>112</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E24" s="1">
         <v>6</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>96</v>
+        <v>115</v>
       </c>
       <c r="H24" s="1">
         <v>4</v>
@@ -2063,22 +2126,22 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D25" s="1">
-        <v>5</v>
+        <v>116</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="E25" s="1">
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G25" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="I25" s="1">
         <v>2</v>
@@ -2095,22 +2158,22 @@
         <v>10</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="1">
-        <v>5</v>
+        <v>119</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>120</v>
       </c>
       <c r="E26" s="1">
         <v>2</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="I26" s="1">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="J26" s="2">
         <v>0</v>
